--- a/fuentes.xlsx
+++ b/fuentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ajcestudioses-my.sharepoint.com/personal/info_ajcestudios_es/Documents/057_Autovia Olivar/4. Documentacion presentada/HTML/SUMINISTROS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7ADC020C-BE32-4EEB-BEBE-58CCBCAE34F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{7ADC020C-BE32-4EEB-BEBE-58CCBCAE34F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8F5DC13-82F0-4A1C-A00E-BBDB0139E95E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0388B033-2C32-4233-92A9-D607977C820B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="82">
   <si>
     <t>Hormigón y Prefabricados</t>
   </si>
@@ -242,9 +242,6 @@
     <t>Amorebieta (Vizcaya)</t>
   </si>
   <si>
-    <t>Especialistas</t>
-  </si>
-  <si>
     <t>📄 CC_Indaico.pdf</t>
   </si>
   <si>
@@ -272,16 +269,19 @@
     <t>Marchena (Sevilla)</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>SUMINISTRO</t>
+  </si>
+  <si>
+    <t>SUBCONTRATA</t>
+  </si>
+  <si>
+    <t>Prueba de carga</t>
+  </si>
+  <si>
+    <t>Juntas</t>
+  </si>
+  <si>
+    <t>Fabricación de hormigones</t>
   </si>
 </sst>
 </file>
@@ -317,7 +317,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -340,22 +340,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -366,9 +355,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -704,369 +690,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F16831C-B6CE-4AA9-8910-AB75062EF3D6}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="51.140625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C22" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="C23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="C24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
